--- a/WalletHub_2/src/Data_Files/InputData.xlsx
+++ b/WalletHub_2/src/Data_Files/InputData.xlsx
@@ -14,50 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Post_Title</t>
-  </si>
-  <si>
-    <t>Post_Content</t>
-  </si>
-  <si>
-    <t>Upload_Img_Path</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
-    <t>Test_Result</t>
-  </si>
-  <si>
-    <t>Post_available</t>
-  </si>
-  <si>
-    <t>Post_Content_Update</t>
-  </si>
-  <si>
-    <t># Update the Content 
-Continuous delivery – Marge all branch tested code by CI server automatically delivery to QA/Staging server</t>
-  </si>
-  <si>
-    <t>Continous Integration and Delivery Model</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t># As soon as development done in local branch it should debug and unit tests and Code review automatically
-Continuous Integration – Constant integration of changes to app at all stages of the delivery chain
-![A bowl of bananas](/content/images/2017/03/continues_deployment.png)</t>
-  </si>
-  <si>
-    <t>https://wallethub.com/</t>
-  </si>
-  <si>
     <t>samir.9898580540@gmail.com</t>
   </si>
   <si>
@@ -65,13 +29,28 @@
   </si>
   <si>
     <t>Email_ID</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>This is Testing Comment for the automation testing demo by samir patel. If posted comment is same as display in the review feed page then test case is pass otherwise it fail. Minimum of 200 characters in the comment.</t>
+  </si>
+  <si>
+    <t>PostConfirm_msg</t>
+  </si>
+  <si>
+    <t>Thanks for submitting your review!</t>
+  </si>
+  <si>
+    <t>http://wallethub.com/profile/test_insurance_company/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,12 +65,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -123,19 +96,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -441,82 +410,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="379.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="379.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="2" t="str">
-        <f>IF(G2="","",IF(G2="true","Pass","Fail"))</f>
-        <v>Pass</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
